--- a/INFORMACION Fundamentos y Logica .xlsx
+++ b/INFORMACION Fundamentos y Logica .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -45,12 +45,35 @@
   <si>
     <t>REPOSITORIO</t>
   </si>
+  <si>
+    <t>Repaso Comandos Git.
+Armado de repositorio git hub
+Subida del primer repositorio
+Ejercicio de actualizacion de repositorio propio
+Clonacion de repositorio de la cursada
+Ejercicio de actualizacion de repositorio</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pvX3m7dD6Xclac632cSpI4LPGRjETjAc/view?usp=sharing PARTE 1 - https://drive.google.com/file/d/1bFgk30mK__q7ykaofoHSeGpDS6CWxyqg/view?usp=sharing PARTE 2</t>
+  </si>
+  <si>
+    <t>Presentacion de la clase + GIT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HObGVP8ACyAg1nCVl3vMkJeW5cZB61Se/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/16i_LjxPosBeN3UdAuSWG7fC2tffSlAWp?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://github.com/DevJumpProf/fundamentos_y_logica_Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,6 +175,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -185,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -392,12 +421,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -499,9 +558,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,24 +573,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -545,6 +583,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -767,7 +815,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A3:F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -781,16 +829,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -810,33 +858,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="43"/>
+    <row r="3" spans="1:7" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
+        <v>44754</v>
+      </c>
+      <c r="B3" s="40">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="47"/>
+      <c r="F3" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="46">
+        <v>44755</v>
+      </c>
+      <c r="B4" s="47">
+        <v>2</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="38"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="36"/>
       <c r="E6" s="9"/>
       <c r="G6" s="11" t="s">
@@ -846,17 +912,17 @@
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="38"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="36"/>
       <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
@@ -892,7 +958,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="39"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1383,8 +1449,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1410,7 +1480,9 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="49" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1443,6 +1515,9 @@
       <c r="A12" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INFORMACION Fundamentos y Logica .xlsx
+++ b/INFORMACION Fundamentos y Logica .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="DRIVE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="16">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>https://github.com/DevJumpProf/fundamentos_y_logica_Data</t>
+  </si>
+  <si>
+    <t>repaso +
+* ¿QUÉ ES LA PROGRAMACIÓN?
+* ¿QUÉ ES UN LENGUAJE DE PROGRAMACIÓN?
+* ¿QUÉ ES UN ALGORITMO?
+* CARACTERÍSTICAS FUNDAMENTALES DE LOS ALGORITMOS
+* ¿CÓMO REPRESENTAR UN ALGORITMO? (DIAGRAMAS DE FLUJO)
+* VARIABLES Y CONSTANTES
+* TIPOS DE DATOS EN PSEINT
+* ¿CÓMO CREO UNA VARIABLE?
+CONCATENACION</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xC__gC9EiCqQvsHNPaAgypjaVX9zDBfA/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -456,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -579,20 +594,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -814,8 +832,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -829,12 +847,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -872,31 +890,39 @@
         <v>11</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="46">
+      <c r="A4" s="44">
         <v>44755</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="A5" s="42">
+        <v>44756</v>
+      </c>
+      <c r="B5" s="43">
+        <v>3</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,9 +1478,10 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1465,7 +1492,7 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1480,7 +1507,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>13</v>
       </c>
     </row>

--- a/INFORMACION Fundamentos y Logica .xlsx
+++ b/INFORMACION Fundamentos y Logica .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -82,6 +82,25 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1xC__gC9EiCqQvsHNPaAgypjaVX9zDBfA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Variables,
+* Datos (pseint)
+* Asignación
+Leer
+* Concatenación
+* Práctica
+(Fundamentos y Logica) 
+# Lección 5: 
+* Operadores 
+* Operadores Aritméticos 
+* Operadores relacionales 
+* Operadores lógicos 
+* Estructuras de control 
+* if/else (si/no)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aikiOF24Pvd9dWd0bA1HoLDhNx1IoWwH/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -608,8 +627,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -833,7 +852,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A5:D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -917,7 +936,7 @@
       <c r="B5" s="43">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="41" t="s">
@@ -925,11 +944,19 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="36"/>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>44757</v>
+      </c>
+      <c r="B6" s="50">
+        <v>4</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="G6" s="11" t="s">
         <v>5</v>
@@ -1479,9 +1506,10 @@
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica .xlsx
+++ b/INFORMACION Fundamentos y Logica .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1aikiOF24Pvd9dWd0bA1HoLDhNx1IoWwH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Condicionales:Estructuras de control
+if/else (si/no)
+Ejercicio: super_Adivina
+switch (segun)
+Ejercicio: libro-pelicula o juego
+while
+Ejercicio: Adivinar el Numero Aleatorio</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xXzXuA55UizrIxJwjmi0oDr3umpBqr3r/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -623,13 +635,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -852,7 +864,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -866,12 +878,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -948,7 +960,7 @@
       <c r="A6" s="39">
         <v>44757</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="48">
         <v>4</v>
       </c>
       <c r="C6" s="40" t="s">
@@ -963,10 +975,18 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36"/>
+      <c r="A7" s="7">
+        <v>44760</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1507,9 +1527,10 @@
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
     <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica .xlsx
+++ b/INFORMACION Fundamentos y Logica .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -113,6 +113,13 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1xXzXuA55UizrIxJwjmi0oDr3umpBqr3r/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Trabajo en grupo, resolucion del ejercicio donde utilizamos todo lo aprendido
+Arrays.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EDU69umnnWpVAh1t24QfJWdphbnXShPy/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -864,7 +871,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -992,10 +999,18 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="A8" s="39">
+        <v>44761</v>
+      </c>
+      <c r="B8" s="40">
+        <v>6</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1528,9 +1543,10 @@
     <hyperlink ref="D5" r:id="rId3"/>
     <hyperlink ref="D6" r:id="rId4"/>
     <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
